--- a/DB/BranchBank-2023-04-22.xlsx
+++ b/DB/BranchBank-2023-04-22.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -193,18 +193,15 @@
   </si>
   <si>
     <t>الصناعية الخرطوم</t>
+  </si>
+  <si>
+    <t>bankID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,464 +573,630 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>57</v>
       </c>
     </row>
